--- a/biology/Médecine/1763_en_santé_et_médecine/1763_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1763_en_santé_et_médecine/1763_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1763_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1763_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1763 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1763_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1763_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1763_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1763_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -537,10 +551,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Edward Stone publie sa découverte sur les propriétés médicales de l'acide salicylique[1].
-François Boissier de Sauvages de Lacroix (1706-1767) publie Nosologia methodica sistens morborum classes, genera et species, juxta Sydenhami mentem et Botanicorum ordinem (3 tomes en 5 vol.)[2].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Edward Stone publie sa découverte sur les propriétés médicales de l'acide salicylique.
+François Boissier de Sauvages de Lacroix (1706-1767) publie Nosologia methodica sistens morborum classes, genera et species, juxta Sydenhami mentem et Botanicorum ordinem (3 tomes en 5 vol.).</t>
         </is>
       </c>
     </row>
@@ -550,7 +566,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1763_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1763_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -568,11 +584,13 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>18 mars : Friedrich Gottlob Hayne (mort en 1832), pharmacien et botaniste saxon[3].
-12 mai : John Bell (mort en 1820), chirurgien écossais[4].
-16 mai : Louis-Nicolas Vauquelin (mort en 1829), pharmacien et chimiste français[5].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>18 mars : Friedrich Gottlob Hayne (mort en 1832), pharmacien et botaniste saxon.
+12 mai : John Bell (mort en 1820), chirurgien écossais.
+16 mai : Louis-Nicolas Vauquelin (mort en 1829), pharmacien et chimiste français.</t>
         </is>
       </c>
     </row>
@@ -582,7 +600,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1763_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1763_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -600,10 +618,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5 mars : William Smellie (né en 1697), médecin obstétricien écossais[6],[7].
-20 juillet : Johan Stensson Rothman (né en 1684), médecin et naturaliste suédois[8].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>5 mars : William Smellie (né en 1697), médecin obstétricien écossais,.
+20 juillet : Johan Stensson Rothman (né en 1684), médecin et naturaliste suédois.</t>
         </is>
       </c>
     </row>
